--- a/biology/Zoologie/Encyocrypta_lugubris/Encyocrypta_lugubris.xlsx
+++ b/biology/Zoologie/Encyocrypta_lugubris/Encyocrypta_lugubris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta lugubris est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta lugubris est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre sur le mont Do[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre sur le mont Do.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 11 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 11 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
